--- a/animals.xlsx
+++ b/animals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MP\Documents\Paz\Prog\Dobble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C25775-1C92-4323-84A4-2077A14F62E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C7AE5D-4308-441E-940A-B0923D9417B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2130" yWindow="2610" windowWidth="24000" windowHeight="14010" activeTab="1" xr2:uid="{D9210E37-AFF9-4277-8A95-957F650A7399}"/>
+    <workbookView xWindow="4335" yWindow="1035" windowWidth="24000" windowHeight="14010" xr2:uid="{D9210E37-AFF9-4277-8A95-957F650A7399}"/>
   </bookViews>
   <sheets>
     <sheet name="animals" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="536">
   <si>
     <t>badger</t>
   </si>
@@ -1556,6 +1556,84 @@
   </si>
   <si>
     <t>{text1: 'belt', text2: 'cinturon',image: 'images/clothes/belt.gif', sound: 'sounds/clothes/belt.mp3'}, {text1: 'beret', text2: 'boina',image: 'images/clothes/beret.gif', sound: 'sounds/clothes/beret.mp3'}, {text1: 'bikini', text2: 'bikini',image: 'images/clothes/bikini.jpg', sound: 'sounds/clothes/bikini.mp3'}, {text1: 'blouse', text2: 'blusa',image: 'images/clothes/blouse.jpg', sound: 'sounds/clothes/blouse.mp3'}, {text1: 'boots', text2: 'botas',image: 'images/clothes/boots.jpg', sound: 'sounds/clothes/boots.mp3'}, {text1: 'bowler hat', text2: 'bombin',image: 'images/clothes/bowler_hat.jpg', sound: 'sounds/clothes/bowler_hat.mp3'}, {text1: 'boxers', text2: 'boxers',image: 'images/clothes/boxers.jpg', sound: 'sounds/clothes/boxers.mp3'}, {text1: 'bra', text2: 'sosten',image: 'images/clothes/bra.jpg', sound: 'sounds/clothes/bra.mp3'}, {text1: 'bracelet', text2: 'pulsera',image: 'images/clothes/bracelet.gif', sound: 'sounds/clothes/bracelet.mp3'}, {text1: 'briefs', text2: 'calzoncillos',image: 'images/clothes/briefs.jpg', sound: 'sounds/clothes/briefs.mp3'}, {text1: 'cap', text2: 'gorra',image: 'images/clothes/cap.jpg', sound: 'sounds/clothes/cap.mp3'}, {text1: 'cardigan', text2: 'cardigan',image: 'images/clothes/cardigan.jpg', sound: 'sounds/clothes/cardigan.mp3'}, {text1: 'coat', text2: 'saco',image: 'images/clothes/coat.jpg', sound: 'sounds/clothes/coat.mp3'}, {text1: 'dress', text2: 'vestido',image: 'images/clothes/dress.jpg', sound: 'sounds/clothes/dress.mp3'}, {text1: 'dressing gown', text2: 'bata',image: 'images/clothes/dressing_gown.jpg', sound: 'sounds/clothes/dressing_gown.mp3'}, {text1: 'earring', text2: 'aro',image: 'images/clothes/earring.gif', sound: 'sounds/clothes/earring.mp3'}, {text1: 'glasses', text2: 'anteojos',image: 'images/clothes/glasses.gif', sound: 'sounds/clothes/glasses.mp3'}, {text1: 'gloves', text2: 'guantes',image: 'images/clothes/gloves.gif', sound: 'sounds/clothes/gloves.mp3'}, {text1: 'handbag', text2: 'cartera',image: 'images/clothes/handbag.gif', sound: 'sounds/clothes/handbag.mp3'}, {text1: 'hanger', text2: 'percha',image: 'images/clothes/hanger.gif', sound: 'sounds/clothes/hanger.mp3'}, {text1: 'hat', text2: 'sombrero',image: 'images/clothes/hat.gif', sound: 'sounds/clothes/hat.mp3'}, {text1: 'headscarf', text2: 'pañuelo',image: 'images/clothes/headscarf.gif', sound: 'sounds/clothes/headscarf.mp3'}, {text1: 'hoodie', text2: 'buzo',image: 'images/clothes/hoodie.jpg', sound: 'sounds/clothes/hoodie.mp3'}, {text1: 'jacket', text2: 'campera',image: 'images/clothes/jacket.jpg', sound: 'sounds/clothes/jacket.mp3'}, {text1: 'jean', text2: 'jean',image: 'images/clothes/jean.jpg', sound: 'sounds/clothes/jean.mp3'}, {text1: 'jumper', text2: 'pullover',image: 'images/clothes/jumper.jpg', sound: 'sounds/clothes/jumper.mp3'}, {text1: 'knitted hat', text2: 'gorro de lana',image: 'images/clothes/knitted_hat.jpg', sound: 'sounds/clothes/knitted_hat.mp3'}, {text1: 'mittens', text2: 'mitones',image: 'images/clothes/mittens.gif', sound: 'sounds/clothes/mittens.mp3'}, {text1: 'nappy', text2: 'pañal',image: 'images/clothes/nappy.jpg', sound: 'sounds/clothes/nappy.mp3'}, {text1: 'necklace', text2: 'collar',image: 'images/clothes/necklace.gif', sound: 'sounds/clothes/necklace.mp3'}, {text1: 'nightdress', text2: 'camison',image: 'images/clothes/nightdress.jpg', sound: 'sounds/clothes/nightdress.mp3'}, {text1: 'panties', text2: 'bombacha',image: 'images/clothes/panties.jpg', sound: 'sounds/clothes/panties.mp3'}, {text1: 'pyjama', text2: 'pijama',image: 'images/clothes/pyjama.jpg', sound: 'sounds/clothes/pyjama.mp3'}, {text1: 'ring', text2: 'anillo',image: 'images/clothes/ring.gif', sound: 'sounds/clothes/ring.mp3'}, {text1: 'romper suit', text2: 'mameluco',image: 'images/clothes/romper_suit.jpg', sound: 'sounds/clothes/romper_suit.mp3'}, {text1: 'sandals', text2: 'sandalias',image: 'images/clothes/sandals.jpg', sound: 'sounds/clothes/sandals.mp3'}, {text1: 'scarf', text2: 'bufanda',image: 'images/clothes/scarf.gif', sound: 'sounds/clothes/scarf.mp3'}, {text1: 'shirt', text2: 'camisa',image: 'images/clothes/shirt.jpg', sound: 'sounds/clothes/shirt.mp3'}, {text1: 'shoes', text2: 'zapatos',image: 'images/clothes/shoes.jpg', sound: 'sounds/clothes/shoes.mp3'}, {text1: 'short', text2: 'short',image: 'images/clothes/short.jpg', sound: 'sounds/clothes/short.mp3'}, {text1: 'skirt', text2: 'pollera',image: 'images/clothes/skirt.jpg', sound: 'sounds/clothes/skirt.mp3'}, {text1: 'slippers', text2: 'pantuflas',image: 'images/clothes/slippers.jpg', sound: 'sounds/clothes/slippers.mp3'}, {text1: 'socks', text2: 'medias',image: 'images/clothes/socks.jpg', sound: 'sounds/clothes/socks.mp3'}, {text1: 'stockings', text2: 'medias de nylon',image: 'images/clothes/stockings.jpg', sound: 'sounds/clothes/stockings.mp3'}, {text1: 'suit', text2: 'traje',image: 'images/clothes/suit.jpg', sound: 'sounds/clothes/suit.mp3'}, {text1: 'sunglasses', text2: 'anteojos de sol',image: 'images/clothes/sunglasses.gif', sound: 'sounds/clothes/sunglasses.mp3'}, {text1: 'swimming trunks', text2: 'short de baño',image: 'images/clothes/swimming_trunks.jpg', sound: 'sounds/clothes/swimming_trunks.mp3'}, {text1: 'swimsuit', text2: 'malla (de mujer)',image: 'images/clothes/swimsuit.jpg', sound: 'sounds/clothes/swimsuit.mp3'}, {text1: 'tanktop', text2: 'camiseta',image: 'images/clothes/tanktop.jpg', sound: 'sounds/clothes/tanktop.mp3'}, {text1: 'tie', text2: 'corbata',image: 'images/clothes/tie.gif', sound: 'sounds/clothes/tie.mp3'}, {text1: 'tights', text2: 'medias largas',image: 'images/clothes/tights.jpg', sound: 'sounds/clothes/tights.mp3'}, {text1: 'trilby', text2: 'sombrero de terciopelo',image: 'images/clothes/trilby.jpg', sound: 'sounds/clothes/trilby.mp3'}, {text1: 'trousers', text2: 'pantalones (uk)',image: 'images/clothes/trousers.jpg', sound: 'sounds/clothes/trousers.mp3'}, {text1: 't-shirt', text2: 'remera',image: 'images/clothes/t-shirt.jpg', sound: 'sounds/clothes/t-shirt.mp3'}, {text1: 'vest', text2: 'chaleco',image: 'images/clothes/vest.jpg', sound: 'sounds/clothes/vest.mp3'}, {text1: 'watch', text2: 'reloj',image: 'images/clothes/watch.gif', sound: 'sounds/clothes/watch.mp3'}, {text1: 'wellingtons', text2: 'botas de goma',image: 'images/clothes/wellingtons.jpg', sound: 'sounds/clothes/wellingtons.mp3'}</t>
+  </si>
+  <si>
+    <t>zebra</t>
+  </si>
+  <si>
+    <t>cebra</t>
+  </si>
+  <si>
+    <t>bull</t>
+  </si>
+  <si>
+    <t>toro</t>
+  </si>
+  <si>
+    <t>cow</t>
+  </si>
+  <si>
+    <t>vaca</t>
+  </si>
+  <si>
+    <t>sacar cattle</t>
+  </si>
+  <si>
+    <t>gaviota</t>
+  </si>
+  <si>
+    <t>pingüino</t>
+  </si>
+  <si>
+    <t>foca</t>
+  </si>
+  <si>
+    <t>ballena</t>
+  </si>
+  <si>
+    <t>orca</t>
+  </si>
+  <si>
+    <t>tigre</t>
+  </si>
+  <si>
+    <t>leon</t>
+  </si>
+  <si>
+    <t>penguin</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>tigger</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>tortuga</t>
+  </si>
+  <si>
+    <t>turtle</t>
+  </si>
+  <si>
+    <t>killer whale</t>
+  </si>
+  <si>
+    <t>whale</t>
+  </si>
+  <si>
+    <t>seagull</t>
+  </si>
+  <si>
+    <t>toucan</t>
+  </si>
+  <si>
+    <t>tucan</t>
+  </si>
+  <si>
+    <t>agregar</t>
   </si>
 </sst>
 </file>
@@ -1907,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325FF7D5-ECF0-4F44-BE5E-ABD4379D404C}">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A89" sqref="A1:B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3381,9 +3459,123 @@
         <v>276</v>
       </c>
     </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>512</v>
+      </c>
+      <c r="B74" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>514</v>
+      </c>
+      <c r="B75" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>530</v>
+      </c>
+      <c r="B76" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>527</v>
+      </c>
+      <c r="B77" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>524</v>
+      </c>
+      <c r="B78" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>532</v>
+      </c>
+      <c r="B79" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>525</v>
+      </c>
+      <c r="B80" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>526</v>
+      </c>
+      <c r="B82" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>533</v>
+      </c>
+      <c r="B83" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>529</v>
+      </c>
+      <c r="B84" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>531</v>
+      </c>
+      <c r="B85" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>510</v>
+      </c>
+      <c r="B86" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>516</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A72">
-    <sortCondition ref="A72"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A74:B86">
+    <sortCondition ref="A74:A86"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3394,7 +3586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C48E4E4-FBA7-4E15-88C1-69C2ACC5CA0D}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
